--- a/Semana6/data.xlsx
+++ b/Semana6/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseb\SIC 2022\Semana6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12117E32-5125-421A-AD85-D3F7A4D24861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47063074-DCDC-4071-8846-3EB6AC5E5601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B4F2AC15-E16F-4704-A280-4FF242152288}"/>
   </bookViews>
@@ -981,7 +981,7 @@
   <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
